--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma1F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9963185280374788</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.18355117195812</v>
+      </c>
+      <c r="D16">
+        <v>0.5960752793557353</v>
+      </c>
+      <c r="E16">
+        <v>1.047915988402299</v>
+      </c>
+      <c r="F16">
+        <v>1.18355117195812</v>
+      </c>
+      <c r="G16">
+        <v>0.7943672782176859</v>
+      </c>
+      <c r="H16">
+        <v>1.124909215325272</v>
+      </c>
+      <c r="I16">
+        <v>1.092202312283082</v>
+      </c>
+      <c r="J16">
+        <v>0.5960752793557353</v>
+      </c>
+      <c r="K16">
+        <v>0.8219956338790171</v>
+      </c>
+      <c r="L16">
+        <v>1.002773402918569</v>
+      </c>
+      <c r="M16">
+        <v>0.9731702075903658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.18355117195812</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8051360000000007</v>
+        <v>1.18355117195812</v>
       </c>
       <c r="D10">
-        <v>0.5146320000000005</v>
+        <v>0.5960752793557353</v>
       </c>
       <c r="E10">
-        <v>1.283668000000001</v>
+        <v>1.047915988402299</v>
       </c>
       <c r="F10">
-        <v>0.8051360000000007</v>
+        <v>1.18355117195812</v>
       </c>
       <c r="G10">
-        <v>0.5394719999999995</v>
+        <v>0.7943672782176859</v>
       </c>
       <c r="H10">
-        <v>2.114767999999995</v>
+        <v>1.124909215325272</v>
       </c>
       <c r="I10">
-        <v>1.192755999999999</v>
+        <v>1.092202312283082</v>
       </c>
       <c r="J10">
-        <v>0.5146320000000005</v>
+        <v>0.5960752793557353</v>
       </c>
       <c r="K10">
-        <v>0.899150000000001</v>
+        <v>0.8219956338790171</v>
       </c>
       <c r="L10">
-        <v>0.8521430000000008</v>
+        <v>1.002773402918569</v>
       </c>
       <c r="M10">
-        <v>1.075071999999999</v>
+        <v>0.9731702075903658</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.8715835538134338</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>1.014577400179688</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.072895145672294</v>
       </c>
       <c r="F11">
-        <v>0.65</v>
+        <v>0.8715835538134338</v>
       </c>
       <c r="G11">
-        <v>0.2198625</v>
+        <v>0.9114504995053088</v>
       </c>
       <c r="H11">
-        <v>2.910137500000002</v>
+        <v>1.310849725526502</v>
       </c>
       <c r="I11">
-        <v>1.35</v>
+        <v>1.012997855574666</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>1.014577400179688</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>1.043736272925991</v>
       </c>
       <c r="L11">
-        <v>0.725</v>
+        <v>0.9576599133697123</v>
       </c>
       <c r="M11">
-        <v>1.121666666666667</v>
+        <v>1.032392363378649</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8045082411008023</v>
+        <v>0.8720107334434821</v>
       </c>
       <c r="D12">
-        <v>0.4685234790399995</v>
+        <v>1.015579854310746</v>
       </c>
       <c r="E12">
-        <v>1.289028794368001</v>
+        <v>1.072455887706028</v>
       </c>
       <c r="F12">
-        <v>0.8045082411008023</v>
+        <v>0.8720107334434821</v>
       </c>
       <c r="G12">
-        <v>0.5440728799232009</v>
+        <v>0.911950648142667</v>
       </c>
       <c r="H12">
-        <v>2.090021382348802</v>
+        <v>1.309806607583377</v>
       </c>
       <c r="I12">
-        <v>1.197373526630398</v>
+        <v>1.012571661214339</v>
       </c>
       <c r="J12">
-        <v>0.4685234790399995</v>
+        <v>1.015579854310746</v>
       </c>
       <c r="K12">
-        <v>0.8787761367040003</v>
+        <v>1.044017871008387</v>
       </c>
       <c r="L12">
-        <v>0.8416421889024013</v>
+        <v>0.9580143022259349</v>
       </c>
       <c r="M12">
-        <v>1.065588050568534</v>
+        <v>1.03239589873344</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9885873240038706</v>
+        <v>0.8720130697531544</v>
       </c>
       <c r="D13">
-        <v>0.9965694279424336</v>
+        <v>1.014271392900869</v>
       </c>
       <c r="E13">
-        <v>0.9969546953521777</v>
+        <v>1.072886620186914</v>
       </c>
       <c r="F13">
-        <v>0.9885873240038706</v>
+        <v>0.8720130697531544</v>
       </c>
       <c r="G13">
-        <v>0.9918684008992457</v>
+        <v>0.9114446638162848</v>
       </c>
       <c r="H13">
-        <v>0.9998573886316411</v>
+        <v>1.310140465724916</v>
       </c>
       <c r="I13">
-        <v>0.994928375453311</v>
+        <v>1.012846226983344</v>
       </c>
       <c r="J13">
-        <v>0.9965694279424336</v>
+        <v>1.014271392900869</v>
       </c>
       <c r="K13">
-        <v>0.9967620616473056</v>
+        <v>1.043579006543891</v>
       </c>
       <c r="L13">
-        <v>0.9926746928255882</v>
+        <v>0.957796038148523</v>
       </c>
       <c r="M13">
-        <v>0.9947942687137799</v>
+        <v>1.03226707322758</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.007944356450144</v>
+        <v>0.8051360000000007</v>
       </c>
       <c r="D14">
-        <v>1.050266089062521</v>
+        <v>0.5146320000000005</v>
       </c>
       <c r="E14">
-        <v>0.9684491221893732</v>
+        <v>1.283668000000001</v>
       </c>
       <c r="F14">
-        <v>1.007944356450144</v>
+        <v>0.8051360000000007</v>
       </c>
       <c r="G14">
-        <v>1.01854047218831</v>
+        <v>0.5394719999999995</v>
       </c>
       <c r="H14">
-        <v>0.9534279518733793</v>
+        <v>2.114767999999995</v>
       </c>
       <c r="I14">
-        <v>0.9824754194620022</v>
+        <v>1.192755999999999</v>
       </c>
       <c r="J14">
-        <v>1.050266089062521</v>
+        <v>0.5146320000000005</v>
       </c>
       <c r="K14">
-        <v>1.009357605625947</v>
+        <v>0.899150000000001</v>
       </c>
       <c r="L14">
-        <v>1.008650981038045</v>
+        <v>0.8521430000000008</v>
       </c>
       <c r="M14">
-        <v>0.9968505685376217</v>
+        <v>1.075071999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9749403871273977</v>
+        <v>0.65</v>
       </c>
       <c r="D15">
-        <v>1.153434291898012</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.9507920037967438</v>
+        <v>1.5</v>
       </c>
       <c r="F15">
-        <v>0.9749403871273977</v>
+        <v>0.65</v>
       </c>
       <c r="G15">
-        <v>1.08440653595496</v>
+        <v>0.2198625</v>
       </c>
       <c r="H15">
-        <v>0.8627221319899996</v>
+        <v>2.910137500000002</v>
       </c>
       <c r="I15">
-        <v>0.9516158174577607</v>
+        <v>1.35</v>
       </c>
       <c r="J15">
-        <v>1.153434291898012</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
-        <v>1.052113147847378</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>1.013526767487388</v>
+        <v>0.725</v>
       </c>
       <c r="M15">
-        <v>0.9963185280374788</v>
+        <v>1.121666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.18355117195812</v>
+        <v>0.8045082411008023</v>
       </c>
       <c r="D16">
-        <v>0.5960752793557353</v>
+        <v>0.4685234790399995</v>
       </c>
       <c r="E16">
-        <v>1.047915988402299</v>
+        <v>1.289028794368001</v>
       </c>
       <c r="F16">
-        <v>1.18355117195812</v>
+        <v>0.8045082411008023</v>
       </c>
       <c r="G16">
-        <v>0.7943672782176859</v>
+        <v>0.5440728799232009</v>
       </c>
       <c r="H16">
-        <v>1.124909215325272</v>
+        <v>2.090021382348802</v>
       </c>
       <c r="I16">
-        <v>1.092202312283082</v>
+        <v>1.197373526630398</v>
       </c>
       <c r="J16">
-        <v>0.5960752793557353</v>
+        <v>0.4685234790399995</v>
       </c>
       <c r="K16">
-        <v>0.8219956338790171</v>
+        <v>0.8787761367040003</v>
       </c>
       <c r="L16">
-        <v>1.002773402918569</v>
+        <v>0.8416421889024013</v>
       </c>
       <c r="M16">
-        <v>0.9731702075903658</v>
+        <v>1.065588050568534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9885873240038706</v>
+      </c>
+      <c r="D17">
+        <v>0.9965694279424336</v>
+      </c>
+      <c r="E17">
+        <v>0.9969546953521777</v>
+      </c>
+      <c r="F17">
+        <v>0.9885873240038706</v>
+      </c>
+      <c r="G17">
+        <v>0.9918684008992457</v>
+      </c>
+      <c r="H17">
+        <v>0.9998573886316411</v>
+      </c>
+      <c r="I17">
+        <v>0.994928375453311</v>
+      </c>
+      <c r="J17">
+        <v>0.9965694279424336</v>
+      </c>
+      <c r="K17">
+        <v>0.9967620616473056</v>
+      </c>
+      <c r="L17">
+        <v>0.9926746928255882</v>
+      </c>
+      <c r="M17">
+        <v>0.9947942687137799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.007944356450144</v>
+      </c>
+      <c r="D18">
+        <v>1.050266089062521</v>
+      </c>
+      <c r="E18">
+        <v>0.9684491221893732</v>
+      </c>
+      <c r="F18">
+        <v>1.007944356450144</v>
+      </c>
+      <c r="G18">
+        <v>1.01854047218831</v>
+      </c>
+      <c r="H18">
+        <v>0.9534279518733793</v>
+      </c>
+      <c r="I18">
+        <v>0.9824754194620022</v>
+      </c>
+      <c r="J18">
+        <v>1.050266089062521</v>
+      </c>
+      <c r="K18">
+        <v>1.009357605625947</v>
+      </c>
+      <c r="L18">
+        <v>1.008650981038045</v>
+      </c>
+      <c r="M18">
+        <v>0.9968505685376217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9749403871273977</v>
+      </c>
+      <c r="D19">
+        <v>1.153434291898012</v>
+      </c>
+      <c r="E19">
+        <v>0.9507920037967438</v>
+      </c>
+      <c r="F19">
+        <v>0.9749403871273977</v>
+      </c>
+      <c r="G19">
+        <v>1.08440653595496</v>
+      </c>
+      <c r="H19">
+        <v>0.8627221319899996</v>
+      </c>
+      <c r="I19">
+        <v>0.9516158174577607</v>
+      </c>
+      <c r="J19">
+        <v>1.153434291898012</v>
+      </c>
+      <c r="K19">
+        <v>1.052113147847378</v>
+      </c>
+      <c r="L19">
+        <v>1.013526767487388</v>
+      </c>
+      <c r="M19">
+        <v>0.9963185280374788</v>
       </c>
     </row>
   </sheetData>
